--- a/BS_translations.xlsx
+++ b/BS_translations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGreenberg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EB788-47B1-4E67-84B3-6057B45B9296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A03A4-1A49-4797-ABA3-8E640A945EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{BC21B509-848D-4A8A-A235-14CAEFF66DCC}"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="25065" windowHeight="14430" xr2:uid="{BC21B509-848D-4A8A-A235-14CAEFF66DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>[LV1][LV2][LV3] (When Summoned) When you don't control another "Loto", you can summon a "Loto" from your Hand, without paying the cost.</t>
   </si>
@@ -256,12 +257,370 @@
   <si>
     <t>[LV3] (When Attacks) Destroy an opposing Spirit with 5 or less cores on it.</t>
   </si>
+  <si>
+    <t>You can summon this card from your Hand as a Cost 4 (</t>
+  </si>
+  <si>
+    <t>).</t>
+  </si>
+  <si>
+    <t>[LV1][LV2] (When Summoned/Attacks) Once per turn, put a core from the Void to this Spirit.</t>
+  </si>
+  <si>
+    <r>
+      <t>Flash - Armed Intervention - Cost 4 ()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Opposing Attack Step)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[LV1][LV2] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trans-Am -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (When Attacks) By returning this Spirit to your Hand, summon a "Gundam Kyrios (Trans-Am)" from your Trash, without paying the cost.</t>
+    </r>
+  </si>
+  <si>
+    <t>[LV1][LV2] When your "CB" family Spirits are destroyed by opposing effects, they can remain on the Field, exhausted.</t>
+  </si>
+  <si>
+    <r>
+      <t>[LV1][LV2] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trans-Am -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (When Attacks/Blocks) By returning this Spirit to your Hand, summon a "Gundam Virtue (Trans-Am)" from your Trash, without paying the cost.</t>
+    </r>
+  </si>
+  <si>
+    <t>[LV1][LV2] (When Summoned/Attacks) Ignoring the Cost of Braves, destroy an opposing Cost 3 or less Spirit.</t>
+  </si>
+  <si>
+    <r>
+      <t>[LV1][LV2] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trans-Am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(When Attacks) By returning this Spirit to your Hand, summon a "Gundam Dynames (Trans-Am)" from your Trash, without paying the cost.</t>
+    </r>
+  </si>
+  <si>
+    <t>When your "Virtue"-named Spirit would leave the Field due to the opponent, you can summon this card from the Hand/Trash, without paying the cost. This effect can only be used once per turn.</t>
+  </si>
+  <si>
+    <t>[LV1] (When Summoned) Refresh three "CB" family Spirits you control.</t>
+  </si>
+  <si>
+    <t>When you use Armed Intervention, the symbol of this card in Trash is treated as being on the Field.</t>
+  </si>
+  <si>
+    <t>[LV1][LV2][LV3] (When Summoned) You can put a core from the Void each to one "CB" family Spirit and to one "Mothership" family Nexus you control.</t>
+  </si>
+  <si>
+    <t>[LV1][LV2][LV3] (Your End Step) Send this Spirit to your Trash.</t>
+  </si>
+  <si>
+    <r>
+      <t>[LV1][LV2][LV3] (When Summoned) Destroy an opposing "Mothership" family Nexus. This effect can't be prevented by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Barrage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Or, you can send four cores from any opposing Grandwalker Nexus(es) to the Void.</t>
+    </r>
+  </si>
+  <si>
+    <t>When you use Armed Intervention, the symbol of this card in the Trash is treated as being on the Field.</t>
+  </si>
+  <si>
+    <t>[LV1][LV2][LV3] (When Summoned) Ignoring the cost of Braves, destroy an opposing Cost 7 or less Spirit.</t>
+  </si>
+  <si>
+    <t>This Brave in Spirit condition cannot attack or block.</t>
+  </si>
+  <si>
+    <t>[LV1] (When Summoned) You can draw two cards. When you've done so, discard a card from your Hand. Then, you can pay one cost to summon a Cost 3 Blue "CB" family Spirit card from your Hand.</t>
+  </si>
+  <si>
+    <t>[During Brave] (When Attacks) This Spirit can't be blocked by opposing originally Cost 5 or less Spirits.</t>
+  </si>
+  <si>
+    <t>[LV1] (When Summoned) You can draw two cards. When you've done so, discard a card from your Hand. Then, you can pay one cost to summon a Blue Cost 3 "CB" family Spirit card from your Hand.</t>
+  </si>
+  <si>
+    <t>[During Brave] While this Spirit is [LV2] or higher, it gains an extra Blue symbol.</t>
+  </si>
+  <si>
+    <r>
+      <t>[During Brave] (Your Attack Step) While your "CB" family Spirits are attacking, increase the cost of every opposing Magic card/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> by +3. This effect doesn't stack.</t>
+    </r>
+  </si>
+  <si>
+    <t>[During Brave] Increase the limit of your "Dynames"-named Spirit's "Cost Destruction effect" by +3.</t>
+  </si>
+  <si>
+    <t>When your "Exia"-named Spirit is summoned, you can return this card from the Trash to your Hand. This effect can only be used once per turn.</t>
+  </si>
+  <si>
+    <t>One and only copy of this card/Brave can be braved to a Spirit that is braved to a "Pilot" family Brave you control, ignoring the amount of Braves on it.</t>
+  </si>
+  <si>
+    <t>[During Brave] (When Attacks) Once per turn, refresh a Blue Nexus you control.</t>
+  </si>
+  <si>
+    <t>[LV2] Your "Dynames"/"Cherudim"/"Zabanya"-named Spirit with </t>
+  </si>
+  <si>
+    <t> on it is unaffected by opposing Spirit effects.</t>
+  </si>
+  <si>
+    <t>[LV1][LV2] (When Deployed) You can reveal two cards from your decktop. Add a Blue "MS"/"MA"/"Mothership"/"Support Fighter"/"Pilot"/"Captain"/"Crew" family card among them to your Hand. Remaining cards are discarded.</t>
+  </si>
+  <si>
+    <t>[LV1][LV2] (Your Main Step) If you control any Blue "CB" family Spirit, by paying one cost, draw two cards. Then, discard a card from your Hand. This effect can only be used once per turn.</t>
+  </si>
+  <si>
+    <t>[LV2] (Your Main Step) Once per turn, you can pay one cost to summon a "Gundam Meister" family Brave card from your Trash.</t>
+  </si>
+  <si>
+    <r>
+      <t>Main -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> If you control any "CB" family Spirit, during this turn, increases the costs of opposing Magic cards/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> by +3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Flash -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> During this turn, give a Spirit +3000 BP.</t>
+    </r>
+  </si>
+  <si>
+    <t>☼[ Burst: After an opposing Spirit/Ultimate attacks ]</t>
+  </si>
+  <si>
+    <t>During this turn, attacks of opposing non-braved Spirits/Ultimates can't decrease your Life. Then, by paying the cost, activate this card's Flash effect.</t>
+  </si>
+  <si>
+    <r>
+      <t>Flash -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Ignoring the cost of Braves, destroy any number of opposing Spirits/Ultimates up to a total cost of 7.</t>
+    </r>
+  </si>
+  <si>
+    <t>You can summon this card from your Hand as Cost 4 (</t>
+  </si>
+  <si>
+    <t>[LV2][LV3] Assault: 2 (When Attacks) This Spirit can, up to twice per turn, be refreshed by exhausting one of your Nexuses.</t>
+  </si>
+  <si>
+    <r>
+      <t>Flash - Armed Intervention: Cost 4 ()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Opposing Attack Step)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[LV1][LV2][LV3] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trans-Am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (When Attacks) By returning this Spirit to your Hand, summon a "Gundam Exia (Trans-Am)" from your Trash, without paying the cost. This effect can also activate at the end of the attack.</t>
+    </r>
+  </si>
+  <si>
+    <t>When you use Armed Intervention, the symbol of this card in your Trash is treated as being on the Field.</t>
+  </si>
+  <si>
+    <t>[LV1][LV2][LV3] (When Attacks) Once per turn, you can refresh this Spirit.</t>
+  </si>
+  <si>
+    <t>[LV1][LV2][LV3] (Your End Step) Put this Spirit on the Trash.</t>
+  </si>
+  <si>
+    <t>[LV2][LV3] (When Attacks) The opponent can't activate the Burst effect of Spirit cards. Also, once per turn, this Spirit can refresh.</t>
+  </si>
+  <si>
+    <t> Main</t>
+  </si>
+  <si>
+    <t>Draw three cards, then discard two cards from your Hand.</t>
+  </si>
+  <si>
+    <t> Flash</t>
+  </si>
+  <si>
+    <t>During this turn, give a Spirit +3000 BP.</t>
+  </si>
+  <si>
+    <t>Put a core from the Void to your Life. Then by paying the cost, activate this card's Flash effect.</t>
+  </si>
+  <si>
+    <t>At the end of battle, end the Attack Step.</t>
+  </si>
+  <si>
+    <r>
+      <t>[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Burst: After your Life is reduced</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +660,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE6E6E6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +710,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1562,6 +1936,2905 @@
         <a:xfrm>
           <a:off x="0" y="30737175"/>
           <a:ext cx="1172472" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569205</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048CCB8E-4ADF-454B-9743-DCDA3F00D282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="33261300"/>
+          <a:ext cx="1178804" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A66F845-D678-4215-9988-761C29D297EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="33261300"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1CA7D1-66A7-4B39-B7D2-E6E5B52E820B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="33861375"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>591192</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E97DFF3-9C0C-4C70-A530-825FB49F17F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1200792" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE83A483-0BC8-4932-918C-BF7A011356A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="0"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C5AA5A-F289-4FA4-ACB5-8AD70CF94B15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="0"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489E7D8D-3B72-48AD-B567-3667B0A4F8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="390525"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F38181-DCD8-48FD-89FC-7FBB8581A9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="390525"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546243</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62A6E0C-7C1B-4E7E-81D6-C1394269F801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2143126"/>
+          <a:ext cx="1155843" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1566ED-D8DE-4D7E-AC87-A6EA89964E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="2143125"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7474B922-9AF6-412D-90F9-2DD2FDC0A793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="2143125"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FD232D-A6AD-46C5-ACCF-C3DB3A138F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1619250" y="2143125"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA64EB1-AFC0-4F0D-83D4-0E541354D126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="2533650"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E9DE44-89A2-446A-993A-D8BFFA71EE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="2533650"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAD5FE7-78CB-4C87-9605-442ACEAB4625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1619250" y="2533650"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571928</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817DC7E0-9083-44D2-9A9E-EB48B550544C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4086226"/>
+          <a:ext cx="1181528" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D225C431-9046-42C5-97AC-A9E11029DBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="4086225"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F4F9A0-14CA-4F25-B6B0-E623025853D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="4086225"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCAC757-751E-460F-BDC2-D3DF76A1CA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1619250" y="4086225"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F00E47-3F2E-4EC4-8932-605E383FF2D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="4476750"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E19692-7459-479F-8430-DA5244798D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="4476750"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FA0CD7-E33F-4F1B-8BCC-0A2CC11CFAD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1619250" y="4476750"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>604035</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEEA922-D7F3-40C0-963C-129B49567F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6038850"/>
+          <a:ext cx="1213635" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>566642</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D08AE6D-DFF0-423A-86D3-FB913B9F57E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7962901"/>
+          <a:ext cx="1176242" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592212</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8ACB501-1FC6-47FD-843A-9CD52FA49F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9896476"/>
+          <a:ext cx="1201812" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>591192</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75F59F5-98F7-43DF-BC34-B90123B534C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11830050"/>
+          <a:ext cx="1200792" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>559085</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5531022-CC33-4C81-87F8-C3BC3E6E46AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13954126"/>
+          <a:ext cx="1168685" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>575686</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E59134B-8437-434B-B096-372DFDE9CE04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15887700"/>
+          <a:ext cx="1185286" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594907</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241BE8FC-120A-401A-814C-F7041DDF0FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17821275"/>
+          <a:ext cx="1204507" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543651</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3D8FE8-B225-4E32-813F-68CE2649E748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19754850"/>
+          <a:ext cx="1153251" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569279</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156BF1F6-C7B5-42CB-994C-7843ECC20BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21688425"/>
+          <a:ext cx="1178879" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>556465</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C54E17-E6FF-418D-8531-698E4B040219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23622000"/>
+          <a:ext cx="1166065" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7670197C-147E-427D-B7ED-738094A5AABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="24212550"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>556465</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA26732-0AF6-4726-BD50-D98E774E6882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25546050"/>
+          <a:ext cx="1166065" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>537244</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B872EBFF-ACE5-463C-8FFF-74EAD989DA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27546300"/>
+          <a:ext cx="1146844" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594907</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538751CD-C141-4BDB-83EA-68B63F28821A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29394150"/>
+          <a:ext cx="1204507" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>530778</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FA371C-07DA-41E3-A081-B8BFDCC4F8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31327725"/>
+          <a:ext cx="1140378" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C617613C-9C62-4A77-ABDD-645C47134B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="31327725"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E165D568-E9DE-432C-BC26-ADEB5CBCE263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="31327725"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CFF95A-FFD7-4D44-B628-8AD6BBB0ACFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1619250" y="31327725"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB648B9-EE35-4830-A88E-ACD74794C533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="31718250"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70E526B-30A5-4A20-9FC8-ADE087FF62E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="31718250"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651B4520-3E25-49A3-808E-342562034A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1619250" y="31718250"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552664</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7296375F-DA18-4F71-9616-22C6E5ABA1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33270825"/>
+          <a:ext cx="1162264" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>556391</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4387D01F-656E-45B0-89D8-9FF4F1AE7DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="35213926"/>
+          <a:ext cx="1165991" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C78D489-51C4-441E-A79A-B48EC248BC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="35213925"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C027F40-AB7D-4505-B86E-0A00B8027593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="35804475"/>
+          <a:ext cx="190500" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1883,10 +5156,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:R170"/>
+  <dimension ref="C1:R177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,6 +5545,29 @@
         <v>47</v>
       </c>
     </row>
+    <row r="173" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C173" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" tooltip="Mothership" display="https://battle-spirits.fandom.com/wiki/Mothership" xr:uid="{E34AF1F0-8D31-45BF-BC03-7AA57A21A59A}"/>
@@ -2287,9 +5583,474 @@
     <hyperlink ref="C126" r:id="rId11" tooltip="MS" display="https://battle-spirits.fandom.com/wiki/MS" xr:uid="{2E1E4423-0E04-49DA-9F6D-B6EFA1F68E9A}"/>
     <hyperlink ref="C134" r:id="rId12" tooltip="NT-D" display="https://battle-spirits.fandom.com/wiki/NT-D" xr:uid="{ED922282-3A3C-4E44-88C9-721E5B63FE5B}"/>
     <hyperlink ref="C165" r:id="rId13" tooltip="Burst" display="https://battle-spirits.fandom.com/wiki/Burst" xr:uid="{4C4CDF3E-35B3-42C8-97ED-E93DD8582A95}"/>
+    <hyperlink ref="C176" r:id="rId14" display="https://static.wikia.nocookie.net/battle-spirits/images/8/80/Flash1.png/revision/latest?cb=20210329082322" xr:uid="{62B70EAE-19AE-4DE0-83BB-C8C958FF7CE6}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" fitToHeight="0" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId15"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId16"/>
+  </customProperties>
+  <drawing r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFF8A6B-2AB5-4E9D-B0F8-5F4F160F7B7D}">
+  <dimension ref="C1:C187"/>
+  <sheetViews>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C144" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C146" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C156" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C163" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C165" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C175" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://static.wikia.nocookie.net/battle-spirits/images/0/01/Blue_core.png/revision/latest?cb=20130425080408" xr:uid="{A3F6FC0C-03CF-4CB2-AE61-BFA308B9D81C}"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://static.wikia.nocookie.net/battle-spirits/images/0/01/Blue_core.png/revision/latest?cb=20130425080408" xr:uid="{7474FC80-3016-409C-A364-38F2E73606AF}"/>
+    <hyperlink ref="C16" r:id="rId3" tooltip="CB" display="https://battle-spirits.fandom.com/wiki/CB" xr:uid="{57C42F0E-D5BE-4BAB-BDA9-DD779AA4455B}"/>
+    <hyperlink ref="C23" r:id="rId4" display="https://static.wikia.nocookie.net/battle-spirits/images/0/01/Blue_core.png/revision/latest?cb=20130425080408" xr:uid="{761DCDF4-5375-4485-9ACA-CAD4D74D7033}"/>
+    <hyperlink ref="C34" r:id="rId5" tooltip="CB" display="https://battle-spirits.fandom.com/wiki/CB" xr:uid="{CD62CA34-9BE7-401A-8EF0-B7544B4DBC97}"/>
+    <hyperlink ref="C42" r:id="rId6" tooltip="Armed Intervention" display="https://battle-spirits.fandom.com/wiki/Armed_Intervention" xr:uid="{8B2C3BEB-E82C-445B-8E4D-6F72F91F8F35}"/>
+    <hyperlink ref="C52" r:id="rId7" tooltip="Armed Intervention" display="https://battle-spirits.fandom.com/wiki/Armed_Intervention" xr:uid="{F6D86BFB-C1B2-4D21-B45E-FE2BA7607002}"/>
+    <hyperlink ref="C62" r:id="rId8" tooltip="Armed Intervention" display="https://battle-spirits.fandom.com/wiki/Armed_Intervention" xr:uid="{A60EA64B-4E0C-4B81-ACBA-28E425D61CA0}"/>
+    <hyperlink ref="C75" r:id="rId9" tooltip="CB" display="https://battle-spirits.fandom.com/wiki/CB" xr:uid="{F3B4EDE1-B4D9-45B5-809D-E7499F1541D3}"/>
+    <hyperlink ref="C85" r:id="rId10" tooltip="CB" display="https://battle-spirits.fandom.com/wiki/CB" xr:uid="{A1B96873-E730-4C02-A0BF-0D37BF93355A}"/>
+    <hyperlink ref="C95" r:id="rId11" tooltip="CB" display="https://battle-spirits.fandom.com/wiki/CB" xr:uid="{244F630B-F3F8-4F63-8689-9E636F111938}"/>
+    <hyperlink ref="C105" r:id="rId12" tooltip="CB" display="https://battle-spirits.fandom.com/wiki/CB" xr:uid="{493963E7-B607-4E0B-8A1A-6FFA5284873E}"/>
+    <hyperlink ref="C115" r:id="rId13" tooltip="Pilot" display="https://battle-spirits.fandom.com/wiki/Pilot" xr:uid="{7AA6365C-A279-44E9-AAD0-E34EB89E8567}"/>
+    <hyperlink ref="C125" r:id="rId14" display="https://static.wikia.nocookie.net/battle-spirits/images/b/b7/Soul_Core.png/revision/latest?cb=20150302152726" xr:uid="{B627B08D-875D-4B2F-BBF5-60549333260F}"/>
+    <hyperlink ref="C126" r:id="rId15" display="https://static.wikia.nocookie.net/battle-spirits/images/b/b7/Soul_Core.png/revision/latest?cb=20150302152726" xr:uid="{DF3FD797-91F9-4635-A75E-E2CDB2F5A8C9}"/>
+    <hyperlink ref="C133" r:id="rId16" tooltip="CB" display="https://battle-spirits.fandom.com/wiki/CB" xr:uid="{5CB1692D-7492-4E07-8365-DFA971AD8099}"/>
+    <hyperlink ref="C135" r:id="rId17" tooltip="Gundam Meister" display="https://battle-spirits.fandom.com/wiki/Gundam_Meister" xr:uid="{323D2AFE-C499-48F4-A9EF-46F4DE52F72A}"/>
+    <hyperlink ref="C153" r:id="rId18" tooltip="Burst" display="https://battle-spirits.fandom.com/wiki/Burst" xr:uid="{BC6877A2-B5DE-4BEE-A678-B0080C17768A}"/>
+    <hyperlink ref="C164" r:id="rId19" display="https://static.wikia.nocookie.net/battle-spirits/images/0/01/Blue_core.png/revision/latest?cb=20130425080408" xr:uid="{AAF7F108-943C-4FCC-A9FC-445CFA0FD282}"/>
+    <hyperlink ref="C169" r:id="rId20" tooltip="Assault" display="https://battle-spirits.fandom.com/wiki/Assault" xr:uid="{E62CB0BC-AEFA-42CD-B697-25C03BF7F0B0}"/>
+    <hyperlink ref="C173" r:id="rId21" tooltip="Armed Intervention" display="https://battle-spirits.fandom.com/wiki/Armed_Intervention" xr:uid="{C55311AD-E515-4542-83D8-93ABCE6BAE29}"/>
+    <hyperlink ref="C183" r:id="rId22" display="https://static.wikia.nocookie.net/battle-spirits/images/6/63/Main1.png/revision/latest?cb=20210329082309" xr:uid="{F55DABF1-ED01-40F6-A2C6-7DA17E7AF01D}"/>
+    <hyperlink ref="C186" r:id="rId23" display="https://static.wikia.nocookie.net/battle-spirits/images/8/80/Flash1.png/revision/latest?cb=20210329082322" xr:uid="{295F8461-F20B-40CB-AA8E-8120B737375E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId24"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId25"/>
+  </customProperties>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/BS_translations.xlsx
+++ b/BS_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGreenberg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A03A4-1A49-4797-ABA3-8E640A945EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEACB36-9767-47BA-ACA4-4263C4AC3E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="25065" windowHeight="14430" xr2:uid="{BC21B509-848D-4A8A-A235-14CAEFF66DCC}"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="25065" windowHeight="14430" activeTab="1" xr2:uid="{BC21B509-848D-4A8A-A235-14CAEFF66DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5158,7 +5158,7 @@
   </sheetPr>
   <dimension ref="C1:R177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
@@ -5587,18 +5587,18 @@
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" fitToHeight="0" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId15"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId16"/>
-  </customProperties>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFF8A6B-2AB5-4E9D-B0F8-5F4F160F7B7D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="C1:C187"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
@@ -6047,10 +6047,7 @@
     <hyperlink ref="C186" r:id="rId23" display="https://static.wikia.nocookie.net/battle-spirits/images/8/80/Flash1.png/revision/latest?cb=20210329082322" xr:uid="{295F8461-F20B-40CB-AA8E-8120B737375E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId24"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId25"/>
-  </customProperties>
-  <drawing r:id="rId26"/>
+  <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>